--- a/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_spearman.xlsx
+++ b/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_spearman.xlsx
@@ -473,28 +473,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>['POLSKA']</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[-0.6157894736842106]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.9912280701754386]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.005000516994406029]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[2.200851783163643e-16]</t>
-        </is>
+          <t>PODLASKIE</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6912280701754386</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.975438596491228</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001047096531944704</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.31906435577432e-12</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -506,28 +498,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>['POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[0.5596491228070175]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.7087719298245614]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.012716556664429154]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.0006810286499007196]</t>
-        </is>
+          <t>MAZOWIECKIE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7982456140350876</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9789473684210527</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.199211365582816e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.600641884713066e-13</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -539,28 +523,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>['LUBELSKIE']</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[-0.1736842105263158]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.9789473684210527]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.4770171488822207]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[3.6006418847130656e-13]</t>
-        </is>
+          <t>LUBUSKIE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2403508771929825</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3216024371426561</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.800829220458973e-10</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -572,94 +548,70 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>['LUBUSKIE']</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[0.24035087719298245]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.9473684210526316]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.32160243714265613]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[7.800829220458973e-10]</t>
-        </is>
+          <t>WARMIŃSKO-MAZURSKIE</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4035087719298245</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.83869193095435e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08668081166957657</v>
       </c>
       <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
         <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>['ŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[-0.8087719298245614]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[-0.06842105263157894]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[2.7672197202341867e-05]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.780767401593491]</t>
-        </is>
+          <t>KUJAWSKO-POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9543859649122807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0003897724787889033</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.367671521743966e-10</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>['PODLASKIE']</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[0.6912280701754386]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.975438596491228]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.0010470965319447035]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[1.3190643557743196e-12]</t>
-        </is>
+          <t>POLSKA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.6157894736842106</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9912280701754386</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.005000516994406029</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.200851783163643e-16</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -671,31 +623,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>['MAZOWIECKIE']</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>[0.7982456140350876]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.9789473684210527]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[4.1992113655828164e-05]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[3.6006418847130656e-13]</t>
-        </is>
+          <t>OPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1859649122807017</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.5929824561403508</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4459062750851884</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.007453211271300691</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -704,61 +648,45 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>['ŚWIĘTOKRZYSKIE']</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[0.6842105263157895]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.819298245614035]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[0.0012337677250587392]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[1.7768068038535248e-05]</t>
-        </is>
+          <t>ŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8087719298245614</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.06842105263157894</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.767219720234187e-05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.780767401593491</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>['WIELKOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>[-0.9263157894736841]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.943859649122807]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[1.2668617852904773e-08]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[1.3339955796336925e-09]</t>
-        </is>
+          <t>ZACHODNIOPOMORSKIE</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.6561403508771929</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7473684210526316</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.002282288681203842</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0002352787108175841</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -770,28 +698,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>['DOLNOŚLĄSKIE']</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[-0.7789473684210525]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.9298245614035087]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[8.503539208142179e-05]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[8.470122190291055e-09]</t>
-        </is>
+          <t>MAŁOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8473684210526315</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8982456140350877</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.681087721120232e-06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.785698234541104e-07</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -803,31 +723,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>['OPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[0.18596491228070175]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>[-0.5929824561403508]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[0.44590627508518843]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[0.0074532112713006915]</t>
-        </is>
+          <t>PODKARPACKIE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.8719298245614034</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9649122807017543</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.149903254490044e-06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.638773713648603e-11</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -836,31 +748,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>['ŁÓDZKIE']</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[0.5017543859649122]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>[0.8035087719298245]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[0.02860632577810904]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[3.419322763877887e-05]</t>
-        </is>
+          <t>LUBELSKIE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1736842105263158</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9789473684210527</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4770171488822207</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.600641884713066e-13</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -869,61 +773,45 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>['WARMIŃSKO-MAZURSKIE']</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[0.7894736842105263]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>[0.40350877192982454]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[5.83869193095435e-05]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[0.08668081166957657]</t>
-        </is>
+          <t>POMORSKIE</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5596491228070175</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7087719298245614</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.01271655666442915</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0006810286499007196</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>['ZACHODNIOPOMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[-0.6561403508771929]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>[0.7473684210526316]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[0.002282288681203842]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[0.0002352787108175841]</t>
-        </is>
+          <t>ŁÓDZKIE</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5017543859649122</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8035087719298245</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02860632577810904</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.419322763877887e-05</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -935,28 +823,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>['PODKARPACKIE']</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[-0.8719298245614034]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[0.9649122807017543]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[1.1499032544900439e-06]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[2.6387737136486033e-11]</t>
-        </is>
+          <t>WIELKOPOLSKIE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.9263157894736841</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.943859649122807</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.266861785290477e-08</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.333995579633692e-09</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -968,28 +848,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>['MAŁOPOLSKIE']</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[-0.8473684210526315]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[0.8982456140350877]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[4.681087721120232e-06]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[1.7856982345411044e-07]</t>
-        </is>
+          <t>ŚWIĘTOKRZYSKIE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.819298245614035</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001233767725058739</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.776806803853525e-05</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1001,28 +873,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>['KUJAWSKO-POMORSKIE']</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[0.7298245614035088]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[0.9543859649122807]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[0.00038977247878890325]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[2.3676715217439657e-10]</t>
-        </is>
+          <t>DOLNOŚLĄSKIE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.7789473684210525</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9298245614035087</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.503539208142179e-05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.470122190291055e-09</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>

--- a/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_spearman.xlsx
+++ b/Results/Test_Powietrze_04_Drogi_04_Samochody_ciezar_04_spearman.xlsx
@@ -1,37 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Eksploracja danych\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094A18AF-79F4-4090-9E8D-68A12278E086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Administrative_Unit</t>
+  </si>
+  <si>
+    <t>Correlation_1_3</t>
+  </si>
+  <si>
+    <t>Correlation_2_3</t>
+  </si>
+  <si>
+    <t>P-Value_1_3</t>
+  </si>
+  <si>
+    <t>P-Value_2_3</t>
+  </si>
+  <si>
+    <t>Significance_1_3</t>
+  </si>
+  <si>
+    <t>Significance_2_3</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>POLSKA</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +129,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,73 +453,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Administrative_Unit</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_1_3</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Correlation_2_3</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_1_3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P-Value_2_3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_1_3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Significance_2_3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PODLASKIE</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6912280701754386</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.975438596491228</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.001047096531944704</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.31906435577432e-12</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.69122807017543864</v>
+      </c>
+      <c r="C2">
+        <v>0.97543859649122799</v>
+      </c>
+      <c r="D2">
+        <v>1.047096531944704E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.31906435577432E-12</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -495,23 +514,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAZOWIECKIE</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7982456140350876</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9789473684210527</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.199211365582816e-05</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.600641884713066e-13</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.79824561403508765</v>
+      </c>
+      <c r="C3">
+        <v>0.97894736842105268</v>
+      </c>
+      <c r="D3">
+        <v>4.1992113655828158E-5</v>
+      </c>
+      <c r="E3">
+        <v>3.6006418847130661E-13</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -520,23 +537,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LUBUSKIE</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2403508771929825</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9473684210526316</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3216024371426561</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.800829220458973e-10</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.24035087719298251</v>
+      </c>
+      <c r="C4">
+        <v>0.94736842105263164</v>
+      </c>
+      <c r="D4">
+        <v>0.32160243714265607</v>
+      </c>
+      <c r="E4">
+        <v>7.8008292204589728E-10</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -545,23 +560,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>WARMIŃSKO-MAZURSKIE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.4035087719298245</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.83869193095435e-05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.08668081166957657</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="C5">
+        <v>0.40350877192982448</v>
+      </c>
+      <c r="D5">
+        <v>5.8386919309543502E-5</v>
+      </c>
+      <c r="E5">
+        <v>8.6680811669576571E-2</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -570,23 +583,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KUJAWSKO-POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7298245614035088</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9543859649122807</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0003897724787889033</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.367671521743966e-10</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.72982456140350882</v>
+      </c>
+      <c r="C6">
+        <v>0.95438596491228067</v>
+      </c>
+      <c r="D6">
+        <v>3.8977247878890331E-4</v>
+      </c>
+      <c r="E6">
+        <v>2.3676715217439662E-10</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -595,23 +606,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>POLSKA</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.6157894736842106</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9912280701754386</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.005000516994406029</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.200851783163643e-16</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>-0.61578947368421055</v>
+      </c>
+      <c r="C7">
+        <v>0.99122807017543857</v>
+      </c>
+      <c r="D7">
+        <v>5.0005169944060289E-3</v>
+      </c>
+      <c r="E7">
+        <v>2.2008517831636429E-16</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -620,23 +629,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>OPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.5929824561403508</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4459062750851884</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.007453211271300691</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.18596491228070169</v>
+      </c>
+      <c r="C8">
+        <v>-0.59298245614035083</v>
+      </c>
+      <c r="D8">
+        <v>0.44590627508518837</v>
+      </c>
+      <c r="E8">
+        <v>7.4532112713006906E-3</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -645,23 +652,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.8087719298245614</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.06842105263157894</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.767219720234187e-05</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.780767401593491</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>-0.80877192982456136</v>
+      </c>
+      <c r="C9">
+        <v>-6.8421052631578938E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.7672197202341871E-5</v>
+      </c>
+      <c r="E9">
+        <v>0.78076740159349101</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -670,23 +675,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ZACHODNIOPOMORSKIE</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.6561403508771929</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7473684210526316</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.002282288681203842</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.0002352787108175841</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-0.65614035087719291</v>
+      </c>
+      <c r="C10">
+        <v>0.74736842105263157</v>
+      </c>
+      <c r="D10">
+        <v>2.282288681203842E-3</v>
+      </c>
+      <c r="E10">
+        <v>2.3527871081758411E-4</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -695,23 +698,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MAŁOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.8473684210526315</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8982456140350877</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4.681087721120232e-06</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.785698234541104e-07</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>-0.84736842105263155</v>
+      </c>
+      <c r="C11">
+        <v>0.89824561403508774</v>
+      </c>
+      <c r="D11">
+        <v>4.6810877211202319E-6</v>
+      </c>
+      <c r="E11">
+        <v>1.7856982345411039E-7</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -720,23 +721,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PODKARPACKIE</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.8719298245614034</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9649122807017543</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.149903254490044e-06</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.638773713648603e-11</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>-0.87192982456140344</v>
+      </c>
+      <c r="C12">
+        <v>0.96491228070175428</v>
+      </c>
+      <c r="D12">
+        <v>1.1499032544900441E-6</v>
+      </c>
+      <c r="E12">
+        <v>2.638773713648603E-11</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -745,23 +744,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>LUBELSKIE</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>-0.1736842105263158</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.9789473684210527</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.4770171488822207</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.600641884713066e-13</v>
+      <c r="C13">
+        <v>0.97894736842105268</v>
+      </c>
+      <c r="D13">
+        <v>0.47701714888222069</v>
+      </c>
+      <c r="E13">
+        <v>3.6006418847130661E-13</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -770,23 +767,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>POMORSKIE</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5596491228070175</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7087719298245614</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01271655666442915</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0006810286499007196</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.55964912280701751</v>
+      </c>
+      <c r="C14">
+        <v>0.70877192982456139</v>
+      </c>
+      <c r="D14">
+        <v>1.2716556664429149E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.8102864990071958E-4</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -795,23 +790,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ŁÓDZKIE</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5017543859649122</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8035087719298245</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.02860632577810904</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.419322763877887e-05</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.50175438596491218</v>
+      </c>
+      <c r="C15">
+        <v>0.80350877192982451</v>
+      </c>
+      <c r="D15">
+        <v>2.8606325778109041E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.4193227638778869E-5</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -820,23 +813,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WIELKOPOLSKIE</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.9263157894736841</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.943859649122807</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.266861785290477e-08</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.333995579633692e-09</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>-0.92631578947368409</v>
+      </c>
+      <c r="C16">
+        <v>0.94385964912280695</v>
+      </c>
+      <c r="D16">
+        <v>1.2668617852904769E-8</v>
+      </c>
+      <c r="E16">
+        <v>1.3339955796336921E-9</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -845,23 +836,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ŚWIĘTOKRZYSKIE</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.819298245614035</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001233767725058739</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.776806803853525e-05</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="C17">
+        <v>0.81929824561403497</v>
+      </c>
+      <c r="D17">
+        <v>1.2337677250587389E-3</v>
+      </c>
+      <c r="E17">
+        <v>1.7768068038535252E-5</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -870,23 +859,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>DOLNOŚLĄSKIE</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
         <v>-0.7789473684210525</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.9298245614035087</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.503539208142179e-05</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.470122190291055e-09</v>
+      <c r="C18">
+        <v>0.92982456140350866</v>
+      </c>
+      <c r="D18">
+        <v>8.5035392081421788E-5</v>
+      </c>
+      <c r="E18">
+        <v>8.4701221902910552E-9</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
